--- a/VentaNueva/data.xlsx
+++ b/VentaNueva/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexisalvarez\OneDrive - Grupo Vidanta\UPDATE\Work\01. 26Dic18 - Metas PowerBI\Enero2019\_Forecast\GoalsForecastsAndProbabilites\VentaNueva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_3E03D13649EED85128EDDE1AEE2358AA12E1CD1A" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{C598F24C-F80A-4A29-9862-8FA128AAE965}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_3E03D13649EED85128EDDE1AEE2358AA12E1CD1A" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{23EA5761-0BA3-4B0D-A2E4-2DEABBDC73F0}"/>
   <bookViews>
-    <workbookView xWindow="8004" yWindow="0" windowWidth="18816" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9348" yWindow="0" windowWidth="18816" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Fechaa</t>
   </si>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D25" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D26" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B317D80A-9B8E-45CD-B838-9D1A8D16FFD1}" name="Fechaa" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{18A33946-2FF8-4E1D-B536-D4542E7DB1E3}" name="International"/>
@@ -445,11 +445,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB6EF03-AEC3-4DB5-8EF8-A226B5E5A057}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -716,14 +714,14 @@
         <v>43513</v>
       </c>
       <c r="B18">
-        <v>526373</v>
+        <v>514403</v>
       </c>
       <c r="C18">
-        <v>2669143</v>
+        <v>2605004</v>
       </c>
       <c r="D18">
         <f>B18+C18/Hoja2!$A$2</f>
-        <v>666315.79902061017</v>
+        <v>650983.0001048597</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -731,14 +729,14 @@
         <v>43514</v>
       </c>
       <c r="B19">
-        <v>656573</v>
+        <v>648503</v>
       </c>
       <c r="C19">
         <v>970409</v>
       </c>
       <c r="D19">
         <f>B19+C19/Hoja2!$A$2</f>
-        <v>707451.40990714671</v>
+        <v>699381.40990714671</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -746,14 +744,14 @@
         <v>43515</v>
       </c>
       <c r="B20">
-        <v>1347436</v>
+        <v>1359406</v>
       </c>
       <c r="C20">
         <v>2827132</v>
       </c>
       <c r="D20">
         <f>B20+C20/Hoja2!$A$2</f>
-        <v>1495662.1404805721</v>
+        <v>1507632.1404805721</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -776,14 +774,14 @@
         <v>43517</v>
       </c>
       <c r="B22">
-        <v>660002</v>
+        <v>668072</v>
       </c>
       <c r="C22">
-        <v>3542337</v>
+        <v>3519197</v>
       </c>
       <c r="D22">
         <f>B22+C22/Hoja2!$A$2</f>
-        <v>845726.23989807628</v>
+        <v>852583.01289250306</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -791,14 +789,14 @@
         <v>43518</v>
       </c>
       <c r="B23">
-        <v>404236</v>
+        <v>392336</v>
       </c>
       <c r="C23">
         <v>2917857</v>
       </c>
       <c r="D23">
         <f>B23+C23/Hoja2!$A$2</f>
-        <v>557218.83970618306</v>
+        <v>545318.83970618306</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -809,11 +807,11 @@
         <v>423880</v>
       </c>
       <c r="C24">
-        <v>6158822</v>
+        <v>5964662</v>
       </c>
       <c r="D24">
         <f>B24+C24/Hoja2!$A$2</f>
-        <v>746786.18724800902</v>
+        <v>736606.40525137493</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -821,14 +819,29 @@
         <v>43520</v>
       </c>
       <c r="B25">
-        <v>701097</v>
+        <v>668969</v>
       </c>
       <c r="C25">
-        <v>2823592</v>
+        <v>2381570</v>
       </c>
       <c r="D25">
         <f>B25+C25/Hoja2!$A$2</f>
-        <v>849137.53876926145</v>
+        <v>793834.38632943784</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43521</v>
+      </c>
+      <c r="B26">
+        <v>1422652</v>
+      </c>
+      <c r="C26">
+        <v>4428691</v>
+      </c>
+      <c r="D26">
+        <f>B26+C26/Hoja2!$A$2</f>
+        <v>1654847.6577588331</v>
       </c>
     </row>
   </sheetData>

--- a/VentaNueva/data.xlsx
+++ b/VentaNueva/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexisalvarez\OneDrive - Grupo Vidanta\UPDATE\Work\01. 26Dic18 - Metas PowerBI\Enero2019\_Forecast\GoalsForecastsAndProbabilites\VentaNueva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_3E03D13649EED85128EDDE1AEE2358AA12E1CD1A" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{23EA5761-0BA3-4B0D-A2E4-2DEABBDC73F0}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="6_{1A0AB3FE-F0DB-4690-A3E0-81BF45417552}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3F9CB807-F866-4980-9B00-7F4FC999C34D}"/>
   <bookViews>
-    <workbookView xWindow="9348" yWindow="0" windowWidth="18816" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="18820" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D26" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D14" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B317D80A-9B8E-45CD-B838-9D1A8D16FFD1}" name="Fechaa" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{18A33946-2FF8-4E1D-B536-D4542E7DB1E3}" name="International"/>
@@ -445,17 +445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB6EF03-AEC3-4DB5-8EF8-A226B5E5A057}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,379 +469,199 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B2">
-        <v>251875</v>
+        <v>265328</v>
       </c>
       <c r="C2">
-        <v>2161670</v>
+        <v>1872483</v>
       </c>
       <c r="D2">
         <f>B2+C2/Hoja2!$A$2</f>
-        <v>365211.05968615483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>363502.02519779163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>43498</v>
+        <v>43526</v>
       </c>
       <c r="B3">
-        <v>487848</v>
+        <v>474445</v>
       </c>
       <c r="C3">
-        <v>3994527</v>
+        <v>2926186</v>
       </c>
       <c r="D3">
         <f>B3+C3/Hoja2!$A$2</f>
-        <v>697280.49917422968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>627864.52802638267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>43499</v>
+        <v>43527</v>
       </c>
       <c r="B4">
-        <v>676953</v>
+        <v>767620</v>
       </c>
       <c r="C4">
-        <v>3156962.44</v>
+        <v>1598410</v>
       </c>
       <c r="D4">
         <f>B4+C4/Hoja2!$A$2</f>
-        <v>842472.10491739679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>851424.41564297362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>43500</v>
+        <v>43528</v>
       </c>
       <c r="B5">
-        <v>1415253</v>
+        <v>867348</v>
       </c>
       <c r="C5">
-        <v>3078628</v>
+        <v>2422835</v>
       </c>
       <c r="D5">
         <f>B5+C5/Hoja2!$A$2</f>
-        <v>1576665.041042096</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>994376.90458289417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>43501</v>
+        <v>43529</v>
       </c>
       <c r="B6">
-        <v>651922</v>
+        <v>1065466</v>
       </c>
       <c r="C6">
-        <v>3031432</v>
+        <v>1782344</v>
       </c>
       <c r="D6">
         <f>B6+C6/Hoja2!$A$2</f>
-        <v>810859.56127740117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1158914.0498712847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>43502</v>
+        <v>43530</v>
       </c>
       <c r="B7">
-        <v>476140</v>
+        <v>918751</v>
       </c>
       <c r="C7">
-        <v>1308365</v>
+        <v>1160635</v>
       </c>
       <c r="D7">
         <f>B7+C7/Hoja2!$A$2</f>
-        <v>544737.39633305545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>979602.93282686081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>43503</v>
+        <v>43531</v>
       </c>
       <c r="B8">
-        <v>529249</v>
+        <v>459442</v>
       </c>
       <c r="C8">
-        <v>1986690</v>
+        <v>2294819</v>
       </c>
       <c r="D8">
         <f>B8+C8/Hoja2!$A$2</f>
-        <v>633410.88244176353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>579759.04337522481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>43504</v>
+        <v>43532</v>
       </c>
       <c r="B9">
-        <v>151448</v>
+        <v>585017</v>
       </c>
       <c r="C9">
-        <v>6538917</v>
+        <v>2479885</v>
       </c>
       <c r="D9">
         <f>B9+C9/Hoja2!$A$2</f>
-        <v>494282.51562672033</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>715037.02820726577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>43505</v>
+        <v>43533</v>
       </c>
       <c r="B10">
-        <v>418684</v>
+        <v>632173</v>
       </c>
       <c r="C10">
-        <v>2786015</v>
+        <v>7070502</v>
       </c>
       <c r="D10">
         <f>B10+C10/Hoja2!$A$2</f>
-        <v>564754.38184668461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1002878.4437925664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>43506</v>
+        <v>43534</v>
       </c>
       <c r="B11">
-        <v>697625</v>
+        <v>531401</v>
       </c>
       <c r="C11">
-        <v>360000</v>
+        <v>3742149</v>
       </c>
       <c r="D11">
         <f>B11+C11/Hoja2!$A$2</f>
-        <v>716499.7503027824</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>727601.35547446401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>43507</v>
+        <v>43535</v>
       </c>
       <c r="B12">
-        <v>1200963</v>
+        <v>1439130</v>
       </c>
       <c r="C12">
-        <v>619063</v>
+        <v>1429140</v>
       </c>
       <c r="D12">
         <f>B12+C12/Hoja2!$A$2</f>
-        <v>1233420.3876296983</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1514059.6129103291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>43508</v>
+        <v>43536</v>
       </c>
       <c r="B13">
-        <v>954880</v>
+        <v>1137205</v>
       </c>
       <c r="C13">
-        <v>868440</v>
+        <v>1713812</v>
       </c>
       <c r="D13">
         <f>B13+C13/Hoja2!$A$2</f>
-        <v>1000412.1893137456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1227059.9265719783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>43509</v>
+        <v>43537</v>
       </c>
       <c r="B14">
-        <v>585598</v>
+        <v>1002718</v>
       </c>
       <c r="C14">
-        <v>1725910</v>
+        <v>3637580</v>
       </c>
       <c r="D14">
         <f>B14+C14/Hoja2!$A$2</f>
-        <v>676087.22304187575</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43510</v>
-      </c>
-      <c r="B15">
-        <v>841918</v>
-      </c>
-      <c r="C15">
-        <v>439200</v>
-      </c>
-      <c r="D15">
-        <f>B15+C15/Hoja2!$A$2</f>
-        <v>864945.19536939461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>43511</v>
-      </c>
-      <c r="B16">
-        <v>428457</v>
-      </c>
-      <c r="C16">
-        <v>529200</v>
-      </c>
-      <c r="D16">
-        <f>B16+C16/Hoja2!$A$2</f>
-        <v>456202.88294509018</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>43512</v>
-      </c>
-      <c r="B17">
-        <v>460206</v>
-      </c>
-      <c r="C17">
-        <v>3675770</v>
-      </c>
-      <c r="D17">
-        <f>B17+C17/Hoja2!$A$2</f>
-        <v>652926.11366794072</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>43513</v>
-      </c>
-      <c r="B18">
-        <v>514403</v>
-      </c>
-      <c r="C18">
-        <v>2605004</v>
-      </c>
-      <c r="D18">
-        <f>B18+C18/Hoja2!$A$2</f>
-        <v>650983.0001048597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>43514</v>
-      </c>
-      <c r="B19">
-        <v>648503</v>
-      </c>
-      <c r="C19">
-        <v>970409</v>
-      </c>
-      <c r="D19">
-        <f>B19+C19/Hoja2!$A$2</f>
-        <v>699381.40990714671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>43515</v>
-      </c>
-      <c r="B20">
-        <v>1359406</v>
-      </c>
-      <c r="C20">
-        <v>2827132</v>
-      </c>
-      <c r="D20">
-        <f>B20+C20/Hoja2!$A$2</f>
-        <v>1507632.1404805721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>43516</v>
-      </c>
-      <c r="B21">
-        <v>822263</v>
-      </c>
-      <c r="C21">
-        <v>1368060</v>
-      </c>
-      <c r="D21">
-        <f>B21+C21/Hoja2!$A$2</f>
-        <v>893990.19694229041</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>43517</v>
-      </c>
-      <c r="B22">
-        <v>668072</v>
-      </c>
-      <c r="C22">
-        <v>3519197</v>
-      </c>
-      <c r="D22">
-        <f>B22+C22/Hoja2!$A$2</f>
-        <v>852583.01289250306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>43518</v>
-      </c>
-      <c r="B23">
-        <v>392336</v>
-      </c>
-      <c r="C23">
-        <v>2917857</v>
-      </c>
-      <c r="D23">
-        <f>B23+C23/Hoja2!$A$2</f>
-        <v>545318.83970618306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>43519</v>
-      </c>
-      <c r="B24">
-        <v>423880</v>
-      </c>
-      <c r="C24">
-        <v>5964662</v>
-      </c>
-      <c r="D24">
-        <f>B24+C24/Hoja2!$A$2</f>
-        <v>736606.40525137493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>43520</v>
-      </c>
-      <c r="B25">
-        <v>668969</v>
-      </c>
-      <c r="C25">
-        <v>2381570</v>
-      </c>
-      <c r="D25">
-        <f>B25+C25/Hoja2!$A$2</f>
-        <v>793834.38632943784</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>43521</v>
-      </c>
-      <c r="B26">
-        <v>1422652</v>
-      </c>
-      <c r="C26">
-        <v>4428691</v>
-      </c>
-      <c r="D26">
-        <f>B26+C26/Hoja2!$A$2</f>
-        <v>1654847.6577588331</v>
+        <v>1193435.8172399872</v>
       </c>
     </row>
   </sheetData>
@@ -861,14 +681,14 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>[1]Hoja1!$Q$37</f>
         <v>19.0731</v>

--- a/VentaNueva/data.xlsx
+++ b/VentaNueva/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexisalvarez\OneDrive - Grupo Vidanta\UPDATE\Work\01. 26Dic18 - Metas PowerBI\Enero2019\_Forecast\GoalsForecastsAndProbabilites\VentaNueva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="6_{1A0AB3FE-F0DB-4690-A3E0-81BF45417552}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3F9CB807-F866-4980-9B00-7F4FC999C34D}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="6_{1A0AB3FE-F0DB-4690-A3E0-81BF45417552}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{02946AD5-3B8C-42FB-BE75-DA4A01A36ED0}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="18820" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D20" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B317D80A-9B8E-45CD-B838-9D1A8D16FFD1}" name="Fechaa" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{18A33946-2FF8-4E1D-B536-D4542E7DB1E3}" name="International"/>
@@ -445,9 +445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB6EF03-AEC3-4DB5-8EF8-A226B5E5A057}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -474,14 +476,14 @@
         <v>43525</v>
       </c>
       <c r="B2">
-        <v>265328</v>
+        <v>235428</v>
       </c>
       <c r="C2">
         <v>1872483</v>
       </c>
       <c r="D2">
         <f>B2+C2/Hoja2!$A$2</f>
-        <v>363502.02519779163</v>
+        <v>333602.02519779163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -504,14 +506,14 @@
         <v>43527</v>
       </c>
       <c r="B4">
-        <v>767620</v>
+        <v>756970</v>
       </c>
       <c r="C4">
         <v>1598410</v>
       </c>
       <c r="D4">
         <f>B4+C4/Hoja2!$A$2</f>
-        <v>851424.41564297362</v>
+        <v>840774.41564297362</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -534,14 +536,14 @@
         <v>43529</v>
       </c>
       <c r="B6">
-        <v>1065466</v>
+        <v>1005152</v>
       </c>
       <c r="C6">
         <v>1782344</v>
       </c>
       <c r="D6">
         <f>B6+C6/Hoja2!$A$2</f>
-        <v>1158914.0498712847</v>
+        <v>1098600.0498712847</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -549,14 +551,14 @@
         <v>43530</v>
       </c>
       <c r="B7">
-        <v>918751</v>
+        <v>867801</v>
       </c>
       <c r="C7">
         <v>1160635</v>
       </c>
       <c r="D7">
         <f>B7+C7/Hoja2!$A$2</f>
-        <v>979602.93282686081</v>
+        <v>928652.93282686081</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -564,14 +566,14 @@
         <v>43531</v>
       </c>
       <c r="B8">
-        <v>459442</v>
+        <v>399342</v>
       </c>
       <c r="C8">
-        <v>2294819</v>
+        <v>2158520</v>
       </c>
       <c r="D8">
         <f>B8+C8/Hoja2!$A$2</f>
-        <v>579759.04337522481</v>
+        <v>512512.90562100551</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -582,11 +584,11 @@
         <v>585017</v>
       </c>
       <c r="C9">
-        <v>2479885</v>
+        <v>2592733</v>
       </c>
       <c r="D9">
         <f>B9+C9/Hoja2!$A$2</f>
-        <v>715037.02820726577</v>
+        <v>720953.63326884457</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -594,14 +596,14 @@
         <v>43533</v>
       </c>
       <c r="B10">
-        <v>632173</v>
+        <v>515952</v>
       </c>
       <c r="C10">
-        <v>7070502</v>
+        <v>7194502</v>
       </c>
       <c r="D10">
         <f>B10+C10/Hoja2!$A$2</f>
-        <v>1002878.4437925664</v>
+        <v>893158.74667463603</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -609,14 +611,14 @@
         <v>43534</v>
       </c>
       <c r="B11">
-        <v>531401</v>
+        <v>511365</v>
       </c>
       <c r="C11">
-        <v>3742149</v>
+        <v>3337189</v>
       </c>
       <c r="D11">
         <f>B11+C11/Hoja2!$A$2</f>
-        <v>727601.35547446401</v>
+        <v>686333.35857831186</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -624,14 +626,14 @@
         <v>43535</v>
       </c>
       <c r="B12">
-        <v>1439130</v>
+        <v>1311766</v>
       </c>
       <c r="C12">
         <v>1429140</v>
       </c>
       <c r="D12">
         <f>B12+C12/Hoja2!$A$2</f>
-        <v>1514059.6129103291</v>
+        <v>1386695.6129103291</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -639,14 +641,14 @@
         <v>43536</v>
       </c>
       <c r="B13">
-        <v>1137205</v>
+        <v>1028704</v>
       </c>
       <c r="C13">
-        <v>1713812</v>
+        <v>1393812</v>
       </c>
       <c r="D13">
         <f>B13+C13/Hoja2!$A$2</f>
-        <v>1227059.9265719783</v>
+        <v>1101781.3707472829</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -654,14 +656,104 @@
         <v>43537</v>
       </c>
       <c r="B14">
-        <v>1002718</v>
+        <v>797443</v>
       </c>
       <c r="C14">
-        <v>3637580</v>
+        <v>3417580</v>
       </c>
       <c r="D14">
         <f>B14+C14/Hoja2!$A$2</f>
-        <v>1193435.8172399872</v>
+        <v>976626.24761050905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>43538</v>
+      </c>
+      <c r="B15">
+        <v>780152</v>
+      </c>
+      <c r="C15">
+        <v>1034335</v>
+      </c>
+      <c r="D15">
+        <f>B15+C15/Hoja2!$A$2</f>
+        <v>834382.04126230138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>43539</v>
+      </c>
+      <c r="B16">
+        <v>368021</v>
+      </c>
+      <c r="C16">
+        <v>2250080</v>
+      </c>
+      <c r="D16">
+        <f>B16+C16/Hoja2!$A$2</f>
+        <v>485992.38378134649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>43540</v>
+      </c>
+      <c r="B17">
+        <v>633122</v>
+      </c>
+      <c r="C17">
+        <v>4918930</v>
+      </c>
+      <c r="D17">
+        <f>B17+C17/Hoja2!$A$2</f>
+        <v>891020.82085240469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>43541</v>
+      </c>
+      <c r="B18">
+        <v>982658</v>
+      </c>
+      <c r="C18">
+        <v>6175263</v>
+      </c>
+      <c r="D18">
+        <f>B18+C18/Hoja2!$A$2</f>
+        <v>1306426.1866083646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B19">
+        <v>2038317</v>
+      </c>
+      <c r="C19">
+        <v>6219920</v>
+      </c>
+      <c r="D19">
+        <f>B19+C19/Hoja2!$A$2</f>
+        <v>2364426.5469535626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B20">
+        <v>1118360</v>
+      </c>
+      <c r="C20">
+        <v>4845820</v>
+      </c>
+      <c r="D20">
+        <f>B20+C20/Hoja2!$A$2</f>
+        <v>1372425.6736450812</v>
       </c>
     </row>
   </sheetData>

--- a/VentaNueva/data.xlsx
+++ b/VentaNueva/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexisalvarez\OneDrive - Grupo Vidanta\UPDATE\Work\01. 26Dic18 - Metas PowerBI\Enero2019\_Forecast\GoalsForecastsAndProbabilites\VentaNueva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="6_{1A0AB3FE-F0DB-4690-A3E0-81BF45417552}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{02946AD5-3B8C-42FB-BE75-DA4A01A36ED0}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="6_{1A0AB3FE-F0DB-4690-A3E0-81BF45417552}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EE485333-BD2B-4369-8E64-2496D3173E45}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="18820" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D20" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18CD275E-53E7-4BC6-85A5-22A705AD3796}" name="Tabla1" displayName="Tabla1" ref="A1:D21" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B317D80A-9B8E-45CD-B838-9D1A8D16FFD1}" name="Fechaa" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{18A33946-2FF8-4E1D-B536-D4542E7DB1E3}" name="International"/>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB6EF03-AEC3-4DB5-8EF8-A226B5E5A057}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,11 +494,11 @@
         <v>474445</v>
       </c>
       <c r="C3">
-        <v>2926186</v>
+        <v>2578876</v>
       </c>
       <c r="D3">
         <f>B3+C3/Hoja2!$A$2</f>
-        <v>627864.52802638267</v>
+        <v>609655.1126717733</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -509,11 +509,11 @@
         <v>756970</v>
       </c>
       <c r="C4">
-        <v>1598410</v>
+        <v>1380710</v>
       </c>
       <c r="D4">
         <f>B4+C4/Hoja2!$A$2</f>
-        <v>840774.41564297362</v>
+        <v>829360.4346959854</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -581,14 +581,14 @@
         <v>43532</v>
       </c>
       <c r="B9">
-        <v>585017</v>
+        <v>532317</v>
       </c>
       <c r="C9">
         <v>2592733</v>
       </c>
       <c r="D9">
         <f>B9+C9/Hoja2!$A$2</f>
-        <v>720953.63326884457</v>
+        <v>668253.63326884457</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -599,11 +599,11 @@
         <v>515952</v>
       </c>
       <c r="C10">
-        <v>7194502</v>
+        <v>6874502</v>
       </c>
       <c r="D10">
         <f>B10+C10/Hoja2!$A$2</f>
-        <v>893158.74667463603</v>
+        <v>876381.19084994053</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -686,14 +686,14 @@
         <v>43539</v>
       </c>
       <c r="B16">
-        <v>368021</v>
+        <v>363420</v>
       </c>
       <c r="C16">
         <v>2250080</v>
       </c>
       <c r="D16">
         <f>B16+C16/Hoja2!$A$2</f>
-        <v>485992.38378134649</v>
+        <v>481391.38378134649</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -701,14 +701,14 @@
         <v>43540</v>
       </c>
       <c r="B17">
-        <v>633122</v>
+        <v>632122</v>
       </c>
       <c r="C17">
         <v>4918930</v>
       </c>
       <c r="D17">
         <f>B17+C17/Hoja2!$A$2</f>
-        <v>891020.82085240469</v>
+        <v>890020.82085240469</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -716,14 +716,14 @@
         <v>43541</v>
       </c>
       <c r="B18">
-        <v>982658</v>
+        <v>972858</v>
       </c>
       <c r="C18">
-        <v>6175263</v>
+        <v>6056063</v>
       </c>
       <c r="D18">
         <f>B18+C18/Hoja2!$A$2</f>
-        <v>1306426.1866083646</v>
+        <v>1290376.5470636655</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -731,14 +731,14 @@
         <v>43542</v>
       </c>
       <c r="B19">
-        <v>2038317</v>
+        <v>1948049</v>
       </c>
       <c r="C19">
         <v>6219920</v>
       </c>
       <c r="D19">
         <f>B19+C19/Hoja2!$A$2</f>
-        <v>2364426.5469535626</v>
+        <v>2274158.5469535626</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -746,14 +746,29 @@
         <v>43543</v>
       </c>
       <c r="B20">
-        <v>1118360</v>
+        <v>1117360</v>
       </c>
       <c r="C20">
-        <v>4845820</v>
+        <v>4725820</v>
       </c>
       <c r="D20">
         <f>B20+C20/Hoja2!$A$2</f>
-        <v>1372425.6736450812</v>
+        <v>1365134.0902108205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B21">
+        <v>667329</v>
+      </c>
+      <c r="C21">
+        <v>1729850</v>
+      </c>
+      <c r="D21">
+        <f>B21+C21/Hoja2!$A$2</f>
+        <v>758024.79669796734</v>
       </c>
     </row>
   </sheetData>
